--- a/data/trans_bre/P11_R-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P11_R-Clase-trans_bre.xlsx
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,91; 13,12</t>
+          <t>1,68; 13,17</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-1,6; 9,52</t>
+          <t>-1,17; 9,97</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-2,15; 9,35</t>
+          <t>-2,37; 8,61</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1,63; 10,77</t>
+          <t>0,72; 11,04</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>11,04; 98,84</t>
+          <t>8,45; 98,5</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-12,54; 98,75</t>
+          <t>-8,35; 99,62</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-12,42; 76,59</t>
+          <t>-13,26; 72,18</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>6,82; 58,4</t>
+          <t>2,69; 59,81</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,85; 11,47</t>
+          <t>0,99; 11,53</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-3,37; 8,8</t>
+          <t>-3,15; 9,17</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,52; 12,21</t>
+          <t>1,65; 12,11</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,11; 10,42</t>
+          <t>-0,4; 10,44</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>7,07; 122,27</t>
+          <t>6,2; 124,34</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-18,17; 65,56</t>
+          <t>-17,11; 66,16</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>9,42; 126,24</t>
+          <t>5,81; 123,04</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,05; 50,82</t>
+          <t>-1,72; 50,3</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>3,5; 19,92</t>
+          <t>3,45; 19,05</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,81; 16,24</t>
+          <t>1,96; 15,96</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,52; 17,28</t>
+          <t>0,12; 16,17</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>12,71; 42,82</t>
+          <t>12,46; 43,81</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>14,68; 116,37</t>
+          <t>16,33; 115,77</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>6,82; 79,34</t>
+          <t>7,42; 76,53</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>2,57; 97,73</t>
+          <t>-0,01; 86,22</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>38,11; 603,28</t>
+          <t>38,74; 534,44</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-0,43; 7,42</t>
+          <t>-0,84; 7,69</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-1,59; 6,34</t>
+          <t>-1,13; 6,9</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-1,24; 6,42</t>
+          <t>-1,01; 6,71</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>2,91; 42,03</t>
+          <t>2,76; 43,08</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-1,97; 34,73</t>
+          <t>-3,42; 36,22</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-6,43; 30,79</t>
+          <t>-4,81; 33,89</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-5,34; 32,31</t>
+          <t>-4,38; 32,67</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>9,23; 142,22</t>
+          <t>8,18; 147,53</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,06; 11,74</t>
+          <t>0,39; 12,2</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>13,36; 23,98</t>
+          <t>14,27; 24,45</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>7,27; 16,87</t>
+          <t>6,87; 16,75</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-2,26; 15,54</t>
+          <t>-3,88; 15,65</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-0,51; 60,11</t>
+          <t>0,42; 66,28</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>58,54; 140,7</t>
+          <t>64,26; 146,72</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>26,96; 80,04</t>
+          <t>25,45; 79,62</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-5,75; 51,15</t>
+          <t>-7,45; 51,63</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>25,13; 32,76</t>
+          <t>25,28; 33,08</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>25,85; 35,29</t>
+          <t>25,6; 34,94</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>24,21; 32,48</t>
+          <t>24,18; 32,33</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>20,5; 35,84</t>
+          <t>20,17; 36,02</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>249,67; 727,99</t>
+          <t>259,75; 784,18</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>236,1; 766,95</t>
+          <t>230,45; 808,89</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>281,46; 1117,46</t>
+          <t>283,53; 1032,75</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>103,58; 617,5</t>
+          <t>93,48; 624,83</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>8,93; 13,14</t>
+          <t>9,03; 12,88</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>10,32; 14,46</t>
+          <t>10,15; 14,38</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>7,98; 12,11</t>
+          <t>8,11; 12,08</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>9,68; 26,73</t>
+          <t>10,34; 28,49</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>46,38; 75,99</t>
+          <t>46,68; 74,67</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>51,24; 80,01</t>
+          <t>50,75; 80,76</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>40,42; 67,71</t>
+          <t>41,39; 68,71</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>36,09; 120,0</t>
+          <t>38,9; 126,11</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P11_R-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P11_R-Clase-trans_bre.xlsx
@@ -1110,7 +1110,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
